--- a/data-raw/dataFormat/RDBES Data Model VD SL.xlsx
+++ b/data-raw/dataFormat/RDBES Data Model VD SL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC67E4-8630-4FF2-AE6C-A9F7310BD81C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FD180-DE04-4AC9-9AC5-54147F0B9586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="131">
-  <si>
-    <t>Hide</t>
-  </si>
-  <si>
-    <t>PK/FK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
   <si>
     <t>Unique combination of fields</t>
   </si>
@@ -56,9 +50,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>Fixed value ('SL')</t>
   </si>
   <si>
-    <t>Uk1</t>
-  </si>
-  <si>
     <t>SpeciesListName</t>
   </si>
   <si>
@@ -128,18 +116,12 @@
     <t>The Aphiaid code of the taxanomic species</t>
   </si>
   <si>
-    <t>This means that the SpeciesListDetail table will be taken out of all the hierarchies.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The SpeciesListDetail data will be uploaded before the hierarchies. The Species Selection record will use/refer to the SpeciesListName. </t>
   </si>
   <si>
     <t>The RDBES will then automatically insert the SpeciesListNameID in the Species Selection table.</t>
   </si>
   <si>
-    <t>In the database the the SpeciesListDetail data will be split in 3 tables: SpeciesListName, SpeciesListContent SpeciesListSpecies</t>
-  </si>
-  <si>
     <t>Required?</t>
   </si>
   <si>
@@ -341,9 +323,6 @@
     <t>The reference from SS to the SL is throgh; Country, SpeciesListName, Year and CatchFraction</t>
   </si>
   <si>
-    <t>UK1</t>
-  </si>
-  <si>
     <t>Field Name Description</t>
   </si>
   <si>
@@ -413,7 +392,16 @@
     <t>3.00-160</t>
   </si>
   <si>
-    <t>Ver 1.19.3</t>
+    <t>Ver 1.19.4</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Uk</t>
+  </si>
+  <si>
+    <t>In the database the the SpeciesListDetail data will be split in 2 tables: SpeciesListName and IndividualSpeciesInSpeciesList.</t>
   </si>
 </sst>
 </file>
@@ -452,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -543,6 +537,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,23 +826,23 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.265625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="41.265625" customWidth="1"/>
-    <col min="13" max="13" width="39.265625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" customWidth="1"/>
+    <col min="11" max="11" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -852,460 +850,424 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="C12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="H13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1319,40 +1281,40 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.1328125" style="2"/>
-    <col min="5" max="5" width="17.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.1328125" style="2"/>
-    <col min="11" max="11" width="20.3984375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="42.1328125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.796875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="20.42578125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1363,344 +1325,318 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="K4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="E9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="11">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="F10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="11">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1709,13 +1645,11 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1724,15 +1658,13 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1741,15 +1673,13 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1758,25 +1688,26 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/dataFormat/RDBES Data Model VD SL.xlsx
+++ b/data-raw/dataFormat/RDBES Data Model VD SL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FD180-DE04-4AC9-9AC5-54147F0B9586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEDB471-6269-4F0E-A535-8D51FD16CFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel Details" sheetId="2" r:id="rId1"/>
-    <sheet name="Species List Details" sheetId="1" r:id="rId2"/>
+    <sheet name="Species List" sheetId="1" r:id="rId2"/>
+    <sheet name="Individual Species" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
   <si>
     <t>Unique combination of fields</t>
   </si>
@@ -92,9 +93,6 @@
     <t>Species code</t>
   </si>
   <si>
-    <t>SLsppCode</t>
-  </si>
-  <si>
     <t>Code list</t>
   </si>
   <si>
@@ -116,9 +114,6 @@
     <t>The Aphiaid code of the taxanomic species</t>
   </si>
   <si>
-    <t xml:space="preserve">The SpeciesListDetail data will be uploaded before the hierarchies. The Species Selection record will use/refer to the SpeciesListName. </t>
-  </si>
-  <si>
     <t>The RDBES will then automatically insert the SpeciesListNameID in the Species Selection table.</t>
   </si>
   <si>
@@ -227,24 +222,15 @@
     <t>Commercial Taxon</t>
   </si>
   <si>
-    <t>SLcommercialTaxon</t>
-  </si>
-  <si>
     <t>SLcatchFrac</t>
   </si>
   <si>
-    <t>SLcommTaxon</t>
-  </si>
-  <si>
     <t>SLspeclistName</t>
   </si>
   <si>
     <t>SLspeciesListName</t>
   </si>
   <si>
-    <t>SLspeciesCode</t>
-  </si>
-  <si>
     <t>The Aphiaid code of the commercial taxon actually selected as given by www.marinespecies.org. The taxa actually selected can be species (e.g., 126436 = Gadus morhua, i.e., Atlantic cod) but also more general taxonomic groups corresponding to commercial designations present at ports or markets and that may include multiple species. In the latter case use the aphiaID that best approximates the commercial name you selected for (e.g., 125802 = Lophius spp for "Monkfishes nei"; Rajiformes for "Skates nei"; 368409 = Batoidea for "Skates and Rays nei")</t>
   </si>
   <si>
@@ -320,9 +306,6 @@
     <t>Institute uploading the species list.</t>
   </si>
   <si>
-    <t>The reference from SS to the SL is throgh; Country, SpeciesListName, Year and CatchFraction</t>
-  </si>
-  <si>
     <t>Field Name Description</t>
   </si>
   <si>
@@ -392,16 +375,46 @@
     <t>3.00-160</t>
   </si>
   <si>
-    <t>Ver 1.19.4</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
     <t>Uk</t>
   </si>
   <si>
-    <t>In the database the the SpeciesListDetail data will be split in 2 tables: SpeciesListName and IndividualSpeciesInSpeciesList.</t>
+    <t>IndividualSpeciesInSpeciesListID</t>
+  </si>
+  <si>
+    <t>ISid</t>
+  </si>
+  <si>
+    <t>ISrecordType</t>
+  </si>
+  <si>
+    <t>ISrecType</t>
+  </si>
+  <si>
+    <t>Fixed value ('IS')</t>
+  </si>
+  <si>
+    <t>Last two fields deleted in this table and movde to the new Individual Species table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SpeciesListDetail data will be uploaded before the hierarchies. The Species Selection record will refer to the SpeciesListName. </t>
+  </si>
+  <si>
+    <t>IScommercialTaxon</t>
+  </si>
+  <si>
+    <t>IScommTaxon</t>
+  </si>
+  <si>
+    <t>ISspeciesCode</t>
+  </si>
+  <si>
+    <t>ISsppCode</t>
+  </si>
+  <si>
+    <t>Ver 1.20</t>
   </si>
 </sst>
 </file>
@@ -495,39 +508,34 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -536,12 +544,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,13 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,437 +851,437 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="15" customWidth="1"/>
     <col min="10" max="10" width="41.28515625" customWidth="1"/>
     <col min="11" max="11" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="K7" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="H13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1281,34 +1295,33 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="20.42578125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1325,390 +1338,498 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>101</v>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433EAEFD-90BA-40E9-83DF-20B7D37C8D8E}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="46.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="D4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="C5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11">
+      <c r="H5" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="C6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="H6" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="11">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="11">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="11">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
